--- a/x1/model_x1_summary.xlsx
+++ b/x1/model_x1_summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\sherlock-final-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\sherlock-final-project\x1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2D8727-19D2-4D9B-ACE8-CCB46D8A83F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDB503F-034D-42AB-9017-4779602FA2D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="11" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -11710,12 +11710,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -11745,7 +11751,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -11754,6 +11760,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12985,7 +12995,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9EDF164C-F474-4DAD-BEB4-84CF5F6F50FA}" name="PivotTable1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9EDF164C-F474-4DAD-BEB4-84CF5F6F50FA}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:G25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisCol" showAll="0">
@@ -13524,8 +13534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{509132F0-20F1-4211-BE6F-90AAF0CF2467}">
   <dimension ref="A3:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14086,8 +14096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16970,34 +16980,34 @@
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A91" s="1">
+      <c r="A91" s="4">
         <v>91</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="5">
         <v>5</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="5">
         <v>10</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="5">
         <v>1.432182732969522E-2</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="5">
         <v>7.840573787689209E-3</v>
       </c>
-      <c r="F91">
+      <c r="F91" s="5">
         <v>43</v>
       </c>
-      <c r="G91" t="s">
+      <c r="G91" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="H91" t="s">
+      <c r="H91" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="I91" t="s">
+      <c r="I91" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="J91" t="s">
+      <c r="J91" s="5" t="s">
         <v>398</v>
       </c>
     </row>

--- a/x1/model_x1_summary.xlsx
+++ b/x1/model_x1_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\sherlock-final-project\x1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDB503F-034D-42AB-9017-4779602FA2D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E53FC2-5CD4-4FD8-9280-1A443F17CF38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11751,7 +11751,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -11764,6 +11764,12 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13178,27 +13184,6 @@
     <dataField name="Average of test_mse" fld="3" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <conditionalFormats count="2">
-    <conditionalFormat priority="1">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="0" count="5" selected="0">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-              <x v="4"/>
-            </reference>
-            <reference field="1" count="1">
-              <x v="9"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
     <conditionalFormat priority="2">
       <pivotAreas count="1">
         <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
@@ -13227,6 +13212,27 @@
               <x v="17"/>
               <x v="18"/>
               <x v="19"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="1">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="0" count="5" selected="0">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+            </reference>
+            <reference field="1" count="1">
+              <x v="9"/>
             </reference>
           </references>
         </pivotArea>
@@ -14096,8 +14102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="J91" sqref="J91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16979,7 +16985,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>91</v>
       </c>
@@ -16998,13 +17004,13 @@
       <c r="F91" s="5">
         <v>43</v>
       </c>
-      <c r="G91" s="5" t="s">
+      <c r="G91" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="H91" s="5" t="s">
+      <c r="H91" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="I91" s="5" t="s">
+      <c r="I91" s="7" t="s">
         <v>298</v>
       </c>
       <c r="J91" s="5" t="s">
